--- a/Docs/Diagrama ER control estudiantes.xlsx
+++ b/Docs/Diagrama ER control estudiantes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unahhn-my.sharepoint.com/personal/marco_alvarado_unah_hn/Documents/Documents/curso c#/estudiantes/attachments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unahhn-my.sharepoint.com/personal/marco_alvarado_unah_hn/Documents/Documents/curso c#/estudiantes/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9584A82-77BF-4101-91A3-0B8259D6979B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{B9584A82-77BF-4101-91A3-0B8259D6979B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53445850-219B-41D1-B189-D2267EB0D496}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF1F5E4F-E804-45F3-9AFC-D227D430A4C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -77,9 +77,6 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>Estudiante_Activo</t>
-  </si>
-  <si>
     <t>estado</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>id_departamento</t>
+  </si>
+  <si>
+    <t>Log_Estudiante</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -384,11 +384,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,7 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -409,15 +447,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -429,6 +458,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,7 +1402,7 @@
   <dimension ref="C2:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,345 +1421,354 @@
   <sheetData>
     <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="G4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="G5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+      <c r="I5" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="G8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="K10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="G11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="K11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="G4" s="17" t="s">
+      <c r="L11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="K12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="G13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="K13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="G14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="G15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="G16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="14" t="s">
+      <c r="I16" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="G5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="G6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="G8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="K10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="G11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="K11" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="G12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="K12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="G13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="G14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="G15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="D17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="G16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="G21" s="10" t="s">
+      <c r="C21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="G21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="G22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="9"/>
+      <c r="G23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="G22" s="17" t="s">
+      <c r="H23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="D25" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="13"/>
-      <c r="G23" s="9" t="s">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
